--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件驳回件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件驳回件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>760</v>
+      </c>
+      <c r="C2" t="n">
+        <v>230</v>
+      </c>
       <c r="D2" t="n">
-        <v>5498</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>5716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5225</v>
+      </c>
+      <c r="F2" t="n">
+        <v>217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>116</v>
+      </c>
+      <c r="H2" t="n">
+        <v>218</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4028</v>
+      </c>
+      <c r="J2" t="n">
+        <v>491</v>
+      </c>
+      <c r="K2" t="n">
+        <v>104</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1099</v>
+      </c>
       <c r="D3" t="n">
-        <v>5291</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>7018</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5671</v>
+      </c>
+      <c r="F3" t="n">
+        <v>164</v>
+      </c>
+      <c r="G3" t="n">
+        <v>114</v>
+      </c>
+      <c r="H3" t="n">
+        <v>210</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3867</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1347</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1414</v>
+      </c>
       <c r="D4" t="n">
-        <v>5391</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>6624</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>136</v>
+      </c>
+      <c r="G4" t="n">
+        <v>124</v>
+      </c>
+      <c r="H4" t="n">
+        <v>239</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3595</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1698</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>493</v>
+        <v>684</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>1074</v>
       </c>
       <c r="D5" t="n">
-        <v>4570</v>
+        <v>6761</v>
       </c>
       <c r="E5" t="n">
-        <v>4333</v>
+        <v>5388</v>
       </c>
       <c r="F5" t="n">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="H5" t="n">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="I5" t="n">
-        <v>3438</v>
+        <v>4321</v>
       </c>
       <c r="J5" t="n">
-        <v>237</v>
+        <v>1373</v>
       </c>
       <c r="K5" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452</v>
+        <v>919</v>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="D6" t="n">
-        <v>4395</v>
+        <v>7644</v>
       </c>
       <c r="E6" t="n">
-        <v>4177</v>
+        <v>6903</v>
       </c>
       <c r="F6" t="n">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="G6" t="n">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="H6" t="n">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="I6" t="n">
-        <v>3385</v>
+        <v>5493</v>
       </c>
       <c r="J6" t="n">
-        <v>218</v>
+        <v>741</v>
       </c>
       <c r="K6" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475</v>
+        <v>1274</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>650</v>
       </c>
       <c r="D7" t="n">
-        <v>4436</v>
+        <v>10987</v>
       </c>
       <c r="E7" t="n">
-        <v>4221</v>
+        <v>9797</v>
       </c>
       <c r="F7" t="n">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="G7" t="n">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="H7" t="n">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="I7" t="n">
-        <v>3387</v>
+        <v>7704</v>
       </c>
       <c r="J7" t="n">
-        <v>215</v>
+        <v>1190</v>
       </c>
       <c r="K7" t="n">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589</v>
+        <v>1683</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>815</v>
       </c>
       <c r="D8" t="n">
-        <v>5484</v>
+        <v>15424</v>
       </c>
       <c r="E8" t="n">
-        <v>5192</v>
+        <v>13962</v>
       </c>
       <c r="F8" t="n">
-        <v>226</v>
+        <v>503</v>
       </c>
       <c r="G8" t="n">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="H8" t="n">
-        <v>156</v>
+        <v>550</v>
       </c>
       <c r="I8" t="n">
-        <v>4156</v>
+        <v>11046</v>
       </c>
       <c r="J8" t="n">
-        <v>292</v>
+        <v>1462</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>628</v>
+        <v>2710</v>
       </c>
       <c r="C9" t="n">
-        <v>168</v>
+        <v>1368</v>
       </c>
       <c r="D9" t="n">
-        <v>5510</v>
+        <v>28279</v>
       </c>
       <c r="E9" t="n">
-        <v>5112</v>
+        <v>26192</v>
       </c>
       <c r="F9" t="n">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="G9" t="n">
-        <v>146</v>
+        <v>1669</v>
       </c>
       <c r="H9" t="n">
-        <v>210</v>
+        <v>563</v>
       </c>
       <c r="I9" t="n">
-        <v>4016</v>
+        <v>21238</v>
       </c>
       <c r="J9" t="n">
-        <v>398</v>
+        <v>2043</v>
       </c>
       <c r="K9" t="n">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760</v>
+        <v>2544</v>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>1672</v>
       </c>
       <c r="D10" t="n">
-        <v>5716</v>
+        <v>20199</v>
       </c>
       <c r="E10" t="n">
-        <v>5225</v>
-      </c>
-      <c r="F10" t="n">
-        <v>217</v>
-      </c>
-      <c r="G10" t="n">
-        <v>116</v>
-      </c>
+        <v>17761</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>218</v>
+        <v>612</v>
       </c>
       <c r="I10" t="n">
-        <v>4028</v>
+        <v>13359</v>
       </c>
       <c r="J10" t="n">
-        <v>491</v>
+        <v>2405</v>
       </c>
       <c r="K10" t="n">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="L10" t="n">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1427</v>
+        <v>2815</v>
       </c>
       <c r="C11" t="n">
-        <v>1099</v>
+        <v>1865</v>
       </c>
       <c r="D11" t="n">
-        <v>7018</v>
+        <v>21013</v>
       </c>
       <c r="E11" t="n">
-        <v>5671</v>
-      </c>
-      <c r="F11" t="n">
-        <v>164</v>
-      </c>
-      <c r="G11" t="n">
-        <v>114</v>
-      </c>
+        <v>18255</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>210</v>
+        <v>723</v>
       </c>
       <c r="I11" t="n">
-        <v>3867</v>
+        <v>13132</v>
       </c>
       <c r="J11" t="n">
-        <v>1347</v>
+        <v>2740</v>
       </c>
       <c r="K11" t="n">
-        <v>99</v>
+        <v>382</v>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>996</v>
+        <v>2860</v>
       </c>
       <c r="C12" t="n">
-        <v>1414</v>
+        <v>1796</v>
       </c>
       <c r="D12" t="n">
-        <v>6624</v>
+        <v>19159</v>
       </c>
       <c r="E12" t="n">
-        <v>4926</v>
-      </c>
-      <c r="F12" t="n">
-        <v>136</v>
-      </c>
-      <c r="G12" t="n">
-        <v>124</v>
-      </c>
+        <v>16610</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>239</v>
+        <v>585</v>
       </c>
       <c r="I12" t="n">
-        <v>3595</v>
+        <v>11732</v>
       </c>
       <c r="J12" t="n">
-        <v>1698</v>
+        <v>2509</v>
       </c>
       <c r="K12" t="n">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>684</v>
+        <v>3180</v>
       </c>
       <c r="C13" t="n">
-        <v>1074</v>
+        <v>1916</v>
       </c>
       <c r="D13" t="n">
-        <v>6761</v>
+        <v>20875</v>
       </c>
       <c r="E13" t="n">
-        <v>5388</v>
-      </c>
-      <c r="F13" t="n">
-        <v>145</v>
-      </c>
-      <c r="G13" t="n">
-        <v>151</v>
-      </c>
+        <v>17973</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>252</v>
+        <v>769</v>
       </c>
       <c r="I13" t="n">
-        <v>4321</v>
+        <v>12513</v>
       </c>
       <c r="J13" t="n">
-        <v>1373</v>
+        <v>2863</v>
       </c>
       <c r="K13" t="n">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="L13" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>919</v>
-      </c>
-      <c r="C14" t="n">
-        <v>359</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7644</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6903</v>
-      </c>
-      <c r="F14" t="n">
-        <v>192</v>
-      </c>
-      <c r="G14" t="n">
-        <v>173</v>
-      </c>
-      <c r="H14" t="n">
-        <v>315</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5493</v>
-      </c>
-      <c r="J14" t="n">
-        <v>741</v>
-      </c>
-      <c r="K14" t="n">
-        <v>126</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1274</v>
-      </c>
-      <c r="C15" t="n">
-        <v>650</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10987</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9797</v>
-      </c>
-      <c r="F15" t="n">
-        <v>309</v>
-      </c>
-      <c r="G15" t="n">
-        <v>338</v>
-      </c>
-      <c r="H15" t="n">
-        <v>466</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7704</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K15" t="n">
-        <v>172</v>
-      </c>
-      <c r="L15" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1683</v>
-      </c>
-      <c r="C16" t="n">
-        <v>815</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15424</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13962</v>
-      </c>
-      <c r="F16" t="n">
-        <v>503</v>
-      </c>
-      <c r="G16" t="n">
-        <v>458</v>
-      </c>
-      <c r="H16" t="n">
-        <v>550</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11046</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1462</v>
-      </c>
-      <c r="K16" t="n">
-        <v>272</v>
-      </c>
-      <c r="L16" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2710</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1368</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28279</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26192</v>
-      </c>
-      <c r="F17" t="n">
-        <v>112</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1669</v>
-      </c>
-      <c r="H17" t="n">
-        <v>563</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21238</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2043</v>
-      </c>
-      <c r="K17" t="n">
-        <v>366</v>
-      </c>
-      <c r="L17" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2544</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1672</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20199</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17761</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>612</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13359</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2405</v>
-      </c>
-      <c r="K18" t="n">
-        <v>325</v>
-      </c>
-      <c r="L18" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21013</v>
-      </c>
-      <c r="E19" t="n">
-        <v>18255</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>723</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13132</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2740</v>
-      </c>
-      <c r="K19" t="n">
-        <v>382</v>
-      </c>
-      <c r="L19" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2860</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1796</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19159</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16610</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1587</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>585</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11732</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K20" t="n">
-        <v>303</v>
-      </c>
-      <c r="L20" t="n">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
